--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed4/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.87209999999999</v>
+        <v>-11.96559999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.0532</v>
+        <v>-22.04460000000001</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.3543</v>
+        <v>-12.43739999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.545600000000007</v>
+        <v>-8.632200000000006</v>
       </c>
     </row>
     <row r="10">
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.31370000000001</v>
+        <v>-22.15330000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.40919999999999</v>
+        <v>-20.15999999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.1342</v>
+        <v>-12.2516</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.3381</v>
+        <v>-13.2469</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.4459</v>
+        <v>-12.3405</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.87429999999999</v>
+        <v>-22.00389999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.233099999999996</v>
+        <v>-7.158499999999997</v>
       </c>
     </row>
     <row r="33">
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.06790000000001</v>
+        <v>-11.69290000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -925,7 +925,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.4525</v>
+        <v>-12.3555</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.870099999999996</v>
+        <v>-7.432799999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.077899999999995</v>
+        <v>-7.166099999999996</v>
       </c>
     </row>
     <row r="46">
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.6709</v>
+        <v>-11.4456</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.205300000000001</v>
+        <v>-8.298400000000004</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.3106</v>
+        <v>-11.0746</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.539099999999994</v>
+        <v>-7.745999999999996</v>
       </c>
     </row>
     <row r="58">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.089999999999993</v>
+        <v>-7.081599999999995</v>
       </c>
     </row>
     <row r="65">
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.112</v>
+        <v>-11.0149</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.425</v>
+        <v>-11.4272</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.51139999999998</v>
+        <v>-21.47549999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.6733</v>
+        <v>-19.65049999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.2578</v>
+        <v>-13.457</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.80000000000001</v>
+        <v>-21.71160000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.972299999999994</v>
+        <v>-6.920099999999993</v>
       </c>
     </row>
     <row r="94">
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.2806</v>
+        <v>-12.3183</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
